--- a/public/templates/sales.xlsx
+++ b/public/templates/sales.xlsx
@@ -657,8 +657,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1200,7 +1206,7 @@
   <dimension ref="A1:F133291"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1222,221 +1228,235 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="2">
+        <v>36525.6666666667</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.6153</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.6153</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.6146</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.6147</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="1"/>
+      <c r="B36" s="3"/>
     </row>
     <row r="132971" spans="1:6">
       <c r="A132971">
         <v>132969</v>
       </c>
-      <c r="B132971" s="1">
+      <c r="B132971" s="3">
         <v>44355.625</v>
       </c>
       <c r="C132971">
@@ -1456,7 +1476,7 @@
       <c r="A132972">
         <v>132970</v>
       </c>
-      <c r="B132972" s="1">
+      <c r="B132972" s="3">
         <v>44355.6666666667</v>
       </c>
       <c r="C132972">
@@ -1476,7 +1496,7 @@
       <c r="A132973">
         <v>132971</v>
       </c>
-      <c r="B132973" s="1">
+      <c r="B132973" s="3">
         <v>44355.7083333333</v>
       </c>
       <c r="C132973">
@@ -1496,7 +1516,7 @@
       <c r="A132974">
         <v>132972</v>
       </c>
-      <c r="B132974" s="1">
+      <c r="B132974" s="3">
         <v>44355.75</v>
       </c>
       <c r="C132974">
@@ -1516,7 +1536,7 @@
       <c r="A132975">
         <v>132973</v>
       </c>
-      <c r="B132975" s="1">
+      <c r="B132975" s="3">
         <v>44355.7916666667</v>
       </c>
       <c r="C132975">
@@ -1536,7 +1556,7 @@
       <c r="A132976">
         <v>132974</v>
       </c>
-      <c r="B132976" s="1">
+      <c r="B132976" s="3">
         <v>44355.8333333333</v>
       </c>
       <c r="C132976">
@@ -1556,7 +1576,7 @@
       <c r="A132977">
         <v>132975</v>
       </c>
-      <c r="B132977" s="1">
+      <c r="B132977" s="3">
         <v>44355.875</v>
       </c>
       <c r="C132977">
@@ -1576,7 +1596,7 @@
       <c r="A132978">
         <v>132976</v>
       </c>
-      <c r="B132978" s="1">
+      <c r="B132978" s="3">
         <v>44355.9166666667</v>
       </c>
       <c r="C132978">
@@ -1596,7 +1616,7 @@
       <c r="A132979">
         <v>132977</v>
       </c>
-      <c r="B132979" s="1">
+      <c r="B132979" s="3">
         <v>44355.9583333333</v>
       </c>
       <c r="C132979">
@@ -1616,7 +1636,7 @@
       <c r="A132980">
         <v>132978</v>
       </c>
-      <c r="B132980" s="1">
+      <c r="B132980" s="3">
         <v>44356</v>
       </c>
       <c r="C132980">
@@ -1636,7 +1656,7 @@
       <c r="A132981">
         <v>132979</v>
       </c>
-      <c r="B132981" s="1">
+      <c r="B132981" s="3">
         <v>44356.0416666667</v>
       </c>
       <c r="C132981">
@@ -1656,7 +1676,7 @@
       <c r="A132982">
         <v>132980</v>
       </c>
-      <c r="B132982" s="1">
+      <c r="B132982" s="3">
         <v>44356.0833333333</v>
       </c>
       <c r="C132982">
@@ -1676,7 +1696,7 @@
       <c r="A132983">
         <v>132981</v>
       </c>
-      <c r="B132983" s="1">
+      <c r="B132983" s="3">
         <v>44356.125</v>
       </c>
       <c r="C132983">
@@ -1696,7 +1716,7 @@
       <c r="A132984">
         <v>132982</v>
       </c>
-      <c r="B132984" s="1">
+      <c r="B132984" s="3">
         <v>44356.1666666667</v>
       </c>
       <c r="C132984">
@@ -1716,7 +1736,7 @@
       <c r="A132985">
         <v>132983</v>
       </c>
-      <c r="B132985" s="1">
+      <c r="B132985" s="3">
         <v>44356.2083333333</v>
       </c>
       <c r="C132985">
@@ -1736,7 +1756,7 @@
       <c r="A132986">
         <v>132984</v>
       </c>
-      <c r="B132986" s="1">
+      <c r="B132986" s="3">
         <v>44356.25</v>
       </c>
       <c r="C132986">
@@ -1756,7 +1776,7 @@
       <c r="A132987">
         <v>132985</v>
       </c>
-      <c r="B132987" s="1">
+      <c r="B132987" s="3">
         <v>44356.2916666667</v>
       </c>
       <c r="C132987">
@@ -1776,7 +1796,7 @@
       <c r="A132988">
         <v>132986</v>
       </c>
-      <c r="B132988" s="1">
+      <c r="B132988" s="3">
         <v>44356.3333333333</v>
       </c>
       <c r="C132988">
@@ -1796,7 +1816,7 @@
       <c r="A132989">
         <v>132987</v>
       </c>
-      <c r="B132989" s="1">
+      <c r="B132989" s="3">
         <v>44356.375</v>
       </c>
       <c r="C132989">
@@ -1816,7 +1836,7 @@
       <c r="A132990">
         <v>132988</v>
       </c>
-      <c r="B132990" s="1">
+      <c r="B132990" s="3">
         <v>44356.4166666667</v>
       </c>
       <c r="C132990">
@@ -1836,7 +1856,7 @@
       <c r="A132991">
         <v>132989</v>
       </c>
-      <c r="B132991" s="1">
+      <c r="B132991" s="3">
         <v>44356.4583333333</v>
       </c>
       <c r="C132991">
@@ -1856,7 +1876,7 @@
       <c r="A132992">
         <v>132990</v>
       </c>
-      <c r="B132992" s="1">
+      <c r="B132992" s="3">
         <v>44356.5</v>
       </c>
       <c r="C132992">
@@ -1876,7 +1896,7 @@
       <c r="A132993">
         <v>132991</v>
       </c>
-      <c r="B132993" s="1">
+      <c r="B132993" s="3">
         <v>44356.5416666667</v>
       </c>
       <c r="C132993">
@@ -1896,7 +1916,7 @@
       <c r="A132994">
         <v>132992</v>
       </c>
-      <c r="B132994" s="1">
+      <c r="B132994" s="3">
         <v>44356.5833333333</v>
       </c>
       <c r="C132994">
@@ -1916,7 +1936,7 @@
       <c r="A132995">
         <v>132993</v>
       </c>
-      <c r="B132995" s="1">
+      <c r="B132995" s="3">
         <v>44356.625</v>
       </c>
       <c r="C132995">
@@ -1936,7 +1956,7 @@
       <c r="A132996">
         <v>132994</v>
       </c>
-      <c r="B132996" s="1">
+      <c r="B132996" s="3">
         <v>44356.6666666667</v>
       </c>
       <c r="C132996">
@@ -1956,7 +1976,7 @@
       <c r="A132997">
         <v>132995</v>
       </c>
-      <c r="B132997" s="1">
+      <c r="B132997" s="3">
         <v>44356.7083333333</v>
       </c>
       <c r="C132997">
@@ -1976,7 +1996,7 @@
       <c r="A132998">
         <v>132996</v>
       </c>
-      <c r="B132998" s="1">
+      <c r="B132998" s="3">
         <v>44356.75</v>
       </c>
       <c r="C132998">
@@ -1996,7 +2016,7 @@
       <c r="A132999">
         <v>132997</v>
       </c>
-      <c r="B132999" s="1">
+      <c r="B132999" s="3">
         <v>44356.7916666667</v>
       </c>
       <c r="C132999">
@@ -2016,7 +2036,7 @@
       <c r="A133000">
         <v>132998</v>
       </c>
-      <c r="B133000" s="1">
+      <c r="B133000" s="3">
         <v>44356.8333333333</v>
       </c>
       <c r="C133000">
@@ -2036,7 +2056,7 @@
       <c r="A133001">
         <v>132999</v>
       </c>
-      <c r="B133001" s="1">
+      <c r="B133001" s="3">
         <v>44356.875</v>
       </c>
       <c r="C133001">
@@ -2056,7 +2076,7 @@
       <c r="A133002">
         <v>133000</v>
       </c>
-      <c r="B133002" s="1">
+      <c r="B133002" s="3">
         <v>44356.9166666667</v>
       </c>
       <c r="C133002">
@@ -2076,7 +2096,7 @@
       <c r="A133003">
         <v>133001</v>
       </c>
-      <c r="B133003" s="1">
+      <c r="B133003" s="3">
         <v>44356.9583333333</v>
       </c>
       <c r="C133003">
@@ -2096,7 +2116,7 @@
       <c r="A133004">
         <v>133002</v>
       </c>
-      <c r="B133004" s="1">
+      <c r="B133004" s="3">
         <v>44357</v>
       </c>
       <c r="C133004">
@@ -2116,7 +2136,7 @@
       <c r="A133005">
         <v>133003</v>
       </c>
-      <c r="B133005" s="1">
+      <c r="B133005" s="3">
         <v>44357.0416666667</v>
       </c>
       <c r="C133005">
@@ -2136,7 +2156,7 @@
       <c r="A133006">
         <v>133004</v>
       </c>
-      <c r="B133006" s="1">
+      <c r="B133006" s="3">
         <v>44357.0833333333</v>
       </c>
       <c r="C133006">
@@ -2156,7 +2176,7 @@
       <c r="A133007">
         <v>133005</v>
       </c>
-      <c r="B133007" s="1">
+      <c r="B133007" s="3">
         <v>44357.125</v>
       </c>
       <c r="C133007">
@@ -2176,7 +2196,7 @@
       <c r="A133008">
         <v>133006</v>
       </c>
-      <c r="B133008" s="1">
+      <c r="B133008" s="3">
         <v>44357.1666666667</v>
       </c>
       <c r="C133008">
@@ -2196,7 +2216,7 @@
       <c r="A133009">
         <v>133007</v>
       </c>
-      <c r="B133009" s="1">
+      <c r="B133009" s="3">
         <v>44357.2083333333</v>
       </c>
       <c r="C133009">
@@ -2216,7 +2236,7 @@
       <c r="A133010">
         <v>133008</v>
       </c>
-      <c r="B133010" s="1">
+      <c r="B133010" s="3">
         <v>44357.25</v>
       </c>
       <c r="C133010">
@@ -2236,7 +2256,7 @@
       <c r="A133011">
         <v>133009</v>
       </c>
-      <c r="B133011" s="1">
+      <c r="B133011" s="3">
         <v>44357.2916666667</v>
       </c>
       <c r="C133011">
@@ -2256,7 +2276,7 @@
       <c r="A133012">
         <v>133010</v>
       </c>
-      <c r="B133012" s="1">
+      <c r="B133012" s="3">
         <v>44357.3333333333</v>
       </c>
       <c r="C133012">
@@ -2276,7 +2296,7 @@
       <c r="A133013">
         <v>133011</v>
       </c>
-      <c r="B133013" s="1">
+      <c r="B133013" s="3">
         <v>44357.375</v>
       </c>
       <c r="C133013">
@@ -2296,7 +2316,7 @@
       <c r="A133014">
         <v>133012</v>
       </c>
-      <c r="B133014" s="1">
+      <c r="B133014" s="3">
         <v>44357.4166666667</v>
       </c>
       <c r="C133014">
@@ -2316,7 +2336,7 @@
       <c r="A133015">
         <v>133013</v>
       </c>
-      <c r="B133015" s="1">
+      <c r="B133015" s="3">
         <v>44357.4583333333</v>
       </c>
       <c r="C133015">
@@ -2336,7 +2356,7 @@
       <c r="A133016">
         <v>133014</v>
       </c>
-      <c r="B133016" s="1">
+      <c r="B133016" s="3">
         <v>44357.5</v>
       </c>
       <c r="C133016">
@@ -2356,7 +2376,7 @@
       <c r="A133017">
         <v>133015</v>
       </c>
-      <c r="B133017" s="1">
+      <c r="B133017" s="3">
         <v>44357.5416666667</v>
       </c>
       <c r="C133017">
@@ -2376,7 +2396,7 @@
       <c r="A133018">
         <v>133016</v>
       </c>
-      <c r="B133018" s="1">
+      <c r="B133018" s="3">
         <v>44357.5833333333</v>
       </c>
       <c r="C133018">
@@ -2396,7 +2416,7 @@
       <c r="A133019">
         <v>133017</v>
       </c>
-      <c r="B133019" s="1">
+      <c r="B133019" s="3">
         <v>44357.625</v>
       </c>
       <c r="C133019">
@@ -2416,7 +2436,7 @@
       <c r="A133020">
         <v>133018</v>
       </c>
-      <c r="B133020" s="1">
+      <c r="B133020" s="3">
         <v>44357.6666666667</v>
       </c>
       <c r="C133020">
@@ -2436,7 +2456,7 @@
       <c r="A133021">
         <v>133019</v>
       </c>
-      <c r="B133021" s="1">
+      <c r="B133021" s="3">
         <v>44357.7083333333</v>
       </c>
       <c r="C133021">
@@ -2456,7 +2476,7 @@
       <c r="A133022">
         <v>133020</v>
       </c>
-      <c r="B133022" s="1">
+      <c r="B133022" s="3">
         <v>44357.75</v>
       </c>
       <c r="C133022">
@@ -2476,7 +2496,7 @@
       <c r="A133023">
         <v>133021</v>
       </c>
-      <c r="B133023" s="1">
+      <c r="B133023" s="3">
         <v>44357.7916666667</v>
       </c>
       <c r="C133023">
@@ -2496,7 +2516,7 @@
       <c r="A133024">
         <v>133022</v>
       </c>
-      <c r="B133024" s="1">
+      <c r="B133024" s="3">
         <v>44357.8333333333</v>
       </c>
       <c r="C133024">
@@ -2516,7 +2536,7 @@
       <c r="A133025">
         <v>133023</v>
       </c>
-      <c r="B133025" s="1">
+      <c r="B133025" s="3">
         <v>44357.875</v>
       </c>
       <c r="C133025">
@@ -2536,7 +2556,7 @@
       <c r="A133026">
         <v>133024</v>
       </c>
-      <c r="B133026" s="1">
+      <c r="B133026" s="3">
         <v>44357.9166666667</v>
       </c>
       <c r="C133026">
@@ -2556,7 +2576,7 @@
       <c r="A133027">
         <v>133025</v>
       </c>
-      <c r="B133027" s="1">
+      <c r="B133027" s="3">
         <v>44357.9583333333</v>
       </c>
       <c r="C133027">
@@ -2576,7 +2596,7 @@
       <c r="A133028">
         <v>133026</v>
       </c>
-      <c r="B133028" s="1">
+      <c r="B133028" s="3">
         <v>44358</v>
       </c>
       <c r="C133028">
@@ -2596,7 +2616,7 @@
       <c r="A133029">
         <v>133027</v>
       </c>
-      <c r="B133029" s="1">
+      <c r="B133029" s="3">
         <v>44358.0416666667</v>
       </c>
       <c r="C133029">
@@ -2616,7 +2636,7 @@
       <c r="A133030">
         <v>133028</v>
       </c>
-      <c r="B133030" s="1">
+      <c r="B133030" s="3">
         <v>44358.0833333333</v>
       </c>
       <c r="C133030">
@@ -2636,7 +2656,7 @@
       <c r="A133031">
         <v>133029</v>
       </c>
-      <c r="B133031" s="1">
+      <c r="B133031" s="3">
         <v>44358.125</v>
       </c>
       <c r="C133031">
@@ -2656,7 +2676,7 @@
       <c r="A133032">
         <v>133030</v>
       </c>
-      <c r="B133032" s="1">
+      <c r="B133032" s="3">
         <v>44358.1666666667</v>
       </c>
       <c r="C133032">
@@ -2676,7 +2696,7 @@
       <c r="A133033">
         <v>133031</v>
       </c>
-      <c r="B133033" s="1">
+      <c r="B133033" s="3">
         <v>44358.2083333333</v>
       </c>
       <c r="C133033">
@@ -2696,7 +2716,7 @@
       <c r="A133034">
         <v>133032</v>
       </c>
-      <c r="B133034" s="1">
+      <c r="B133034" s="3">
         <v>44358.25</v>
       </c>
       <c r="C133034">
@@ -2716,7 +2736,7 @@
       <c r="A133035">
         <v>133033</v>
       </c>
-      <c r="B133035" s="1">
+      <c r="B133035" s="3">
         <v>44358.2916666667</v>
       </c>
       <c r="C133035">
@@ -2736,7 +2756,7 @@
       <c r="A133036">
         <v>133034</v>
       </c>
-      <c r="B133036" s="1">
+      <c r="B133036" s="3">
         <v>44358.3333333333</v>
       </c>
       <c r="C133036">
@@ -2756,7 +2776,7 @@
       <c r="A133037">
         <v>133035</v>
       </c>
-      <c r="B133037" s="1">
+      <c r="B133037" s="3">
         <v>44358.375</v>
       </c>
       <c r="C133037">
@@ -2776,7 +2796,7 @@
       <c r="A133038">
         <v>133036</v>
       </c>
-      <c r="B133038" s="1">
+      <c r="B133038" s="3">
         <v>44358.4166666667</v>
       </c>
       <c r="C133038">
@@ -2796,7 +2816,7 @@
       <c r="A133039">
         <v>133037</v>
       </c>
-      <c r="B133039" s="1">
+      <c r="B133039" s="3">
         <v>44358.4583333333</v>
       </c>
       <c r="C133039">
@@ -2816,7 +2836,7 @@
       <c r="A133040">
         <v>133038</v>
       </c>
-      <c r="B133040" s="1">
+      <c r="B133040" s="3">
         <v>44358.5</v>
       </c>
       <c r="C133040">
@@ -2836,7 +2856,7 @@
       <c r="A133041">
         <v>133039</v>
       </c>
-      <c r="B133041" s="1">
+      <c r="B133041" s="3">
         <v>44358.5416666667</v>
       </c>
       <c r="C133041">
@@ -2856,7 +2876,7 @@
       <c r="A133042">
         <v>133040</v>
       </c>
-      <c r="B133042" s="1">
+      <c r="B133042" s="3">
         <v>44358.5833333333</v>
       </c>
       <c r="C133042">
@@ -2876,7 +2896,7 @@
       <c r="A133043">
         <v>133041</v>
       </c>
-      <c r="B133043" s="1">
+      <c r="B133043" s="3">
         <v>44358.625</v>
       </c>
       <c r="C133043">
@@ -2896,7 +2916,7 @@
       <c r="A133044">
         <v>133042</v>
       </c>
-      <c r="B133044" s="1">
+      <c r="B133044" s="3">
         <v>44358.6666666667</v>
       </c>
       <c r="C133044">
@@ -2916,7 +2936,7 @@
       <c r="A133045">
         <v>133043</v>
       </c>
-      <c r="B133045" s="1">
+      <c r="B133045" s="3">
         <v>44358.7083333333</v>
       </c>
       <c r="C133045">
@@ -2936,7 +2956,7 @@
       <c r="A133046">
         <v>133044</v>
       </c>
-      <c r="B133046" s="1">
+      <c r="B133046" s="3">
         <v>44358.75</v>
       </c>
       <c r="C133046">
@@ -2956,7 +2976,7 @@
       <c r="A133047">
         <v>133045</v>
       </c>
-      <c r="B133047" s="1">
+      <c r="B133047" s="3">
         <v>44358.7916666667</v>
       </c>
       <c r="C133047">
@@ -2976,7 +2996,7 @@
       <c r="A133048">
         <v>133046</v>
       </c>
-      <c r="B133048" s="1">
+      <c r="B133048" s="3">
         <v>44358.8333333333</v>
       </c>
       <c r="C133048">
@@ -2996,7 +3016,7 @@
       <c r="A133049">
         <v>133047</v>
       </c>
-      <c r="B133049" s="1">
+      <c r="B133049" s="3">
         <v>44358.875</v>
       </c>
       <c r="C133049">
@@ -3016,7 +3036,7 @@
       <c r="A133050">
         <v>133048</v>
       </c>
-      <c r="B133050" s="1">
+      <c r="B133050" s="3">
         <v>44358.9166666667</v>
       </c>
       <c r="C133050">
@@ -3036,7 +3056,7 @@
       <c r="A133051">
         <v>133049</v>
       </c>
-      <c r="B133051" s="1">
+      <c r="B133051" s="3">
         <v>44358.9583333333</v>
       </c>
       <c r="C133051">
@@ -3056,7 +3076,7 @@
       <c r="A133052">
         <v>133050</v>
       </c>
-      <c r="B133052" s="1">
+      <c r="B133052" s="3">
         <v>44361</v>
       </c>
       <c r="C133052">
@@ -3076,7 +3096,7 @@
       <c r="A133053">
         <v>133051</v>
       </c>
-      <c r="B133053" s="1">
+      <c r="B133053" s="3">
         <v>44361.0416666667</v>
       </c>
       <c r="C133053">
@@ -3096,7 +3116,7 @@
       <c r="A133054">
         <v>133052</v>
       </c>
-      <c r="B133054" s="1">
+      <c r="B133054" s="3">
         <v>44361.0833333333</v>
       </c>
       <c r="C133054">
@@ -3116,7 +3136,7 @@
       <c r="A133055">
         <v>133053</v>
       </c>
-      <c r="B133055" s="1">
+      <c r="B133055" s="3">
         <v>44361.125</v>
       </c>
       <c r="C133055">
@@ -3136,7 +3156,7 @@
       <c r="A133056">
         <v>133054</v>
       </c>
-      <c r="B133056" s="1">
+      <c r="B133056" s="3">
         <v>44361.1666666667</v>
       </c>
       <c r="C133056">
@@ -3156,7 +3176,7 @@
       <c r="A133057">
         <v>133055</v>
       </c>
-      <c r="B133057" s="1">
+      <c r="B133057" s="3">
         <v>44361.2083333333</v>
       </c>
       <c r="C133057">
@@ -3176,7 +3196,7 @@
       <c r="A133058">
         <v>133056</v>
       </c>
-      <c r="B133058" s="1">
+      <c r="B133058" s="3">
         <v>44361.25</v>
       </c>
       <c r="C133058">
@@ -3196,7 +3216,7 @@
       <c r="A133059">
         <v>133057</v>
       </c>
-      <c r="B133059" s="1">
+      <c r="B133059" s="3">
         <v>44361.2916666667</v>
       </c>
       <c r="C133059">
@@ -3216,7 +3236,7 @@
       <c r="A133060">
         <v>133058</v>
       </c>
-      <c r="B133060" s="1">
+      <c r="B133060" s="3">
         <v>44361.3333333333</v>
       </c>
       <c r="C133060">
@@ -3236,7 +3256,7 @@
       <c r="A133061">
         <v>133059</v>
       </c>
-      <c r="B133061" s="1">
+      <c r="B133061" s="3">
         <v>44361.375</v>
       </c>
       <c r="C133061">
@@ -3256,7 +3276,7 @@
       <c r="A133062">
         <v>133060</v>
       </c>
-      <c r="B133062" s="1">
+      <c r="B133062" s="3">
         <v>44361.4166666667</v>
       </c>
       <c r="C133062">
@@ -3276,7 +3296,7 @@
       <c r="A133063">
         <v>133061</v>
       </c>
-      <c r="B133063" s="1">
+      <c r="B133063" s="3">
         <v>44361.4583333333</v>
       </c>
       <c r="C133063">
@@ -3296,7 +3316,7 @@
       <c r="A133064">
         <v>133062</v>
       </c>
-      <c r="B133064" s="1">
+      <c r="B133064" s="3">
         <v>44361.5</v>
       </c>
       <c r="C133064">
@@ -3316,7 +3336,7 @@
       <c r="A133065">
         <v>133063</v>
       </c>
-      <c r="B133065" s="1">
+      <c r="B133065" s="3">
         <v>44361.5416666667</v>
       </c>
       <c r="C133065">
@@ -3336,7 +3356,7 @@
       <c r="A133066">
         <v>133064</v>
       </c>
-      <c r="B133066" s="1">
+      <c r="B133066" s="3">
         <v>44361.5833333333</v>
       </c>
       <c r="C133066">
@@ -3356,7 +3376,7 @@
       <c r="A133067">
         <v>133065</v>
       </c>
-      <c r="B133067" s="1">
+      <c r="B133067" s="3">
         <v>44361.625</v>
       </c>
       <c r="C133067">
@@ -3376,7 +3396,7 @@
       <c r="A133068">
         <v>133066</v>
       </c>
-      <c r="B133068" s="1">
+      <c r="B133068" s="3">
         <v>44361.6666666667</v>
       </c>
       <c r="C133068">
@@ -3396,7 +3416,7 @@
       <c r="A133069">
         <v>133067</v>
       </c>
-      <c r="B133069" s="1">
+      <c r="B133069" s="3">
         <v>44361.7083333333</v>
       </c>
       <c r="C133069">
@@ -3416,7 +3436,7 @@
       <c r="A133070">
         <v>133068</v>
       </c>
-      <c r="B133070" s="1">
+      <c r="B133070" s="3">
         <v>44361.75</v>
       </c>
       <c r="C133070">
@@ -3436,7 +3456,7 @@
       <c r="A133071">
         <v>133069</v>
       </c>
-      <c r="B133071" s="1">
+      <c r="B133071" s="3">
         <v>44361.7916666667</v>
       </c>
       <c r="C133071">
@@ -3456,7 +3476,7 @@
       <c r="A133072">
         <v>133070</v>
       </c>
-      <c r="B133072" s="1">
+      <c r="B133072" s="3">
         <v>44361.8333333333</v>
       </c>
       <c r="C133072">
@@ -3476,7 +3496,7 @@
       <c r="A133073">
         <v>133071</v>
       </c>
-      <c r="B133073" s="1">
+      <c r="B133073" s="3">
         <v>44361.875</v>
       </c>
       <c r="C133073">
@@ -3496,7 +3516,7 @@
       <c r="A133074">
         <v>133072</v>
       </c>
-      <c r="B133074" s="1">
+      <c r="B133074" s="3">
         <v>44361.9166666667</v>
       </c>
       <c r="C133074">
@@ -3516,7 +3536,7 @@
       <c r="A133075">
         <v>133073</v>
       </c>
-      <c r="B133075" s="1">
+      <c r="B133075" s="3">
         <v>44361.9583333333</v>
       </c>
       <c r="C133075">
@@ -3536,7 +3556,7 @@
       <c r="A133076">
         <v>133074</v>
       </c>
-      <c r="B133076" s="1">
+      <c r="B133076" s="3">
         <v>44362</v>
       </c>
       <c r="C133076">
@@ -3556,7 +3576,7 @@
       <c r="A133077">
         <v>133075</v>
       </c>
-      <c r="B133077" s="1">
+      <c r="B133077" s="3">
         <v>44362.0416666667</v>
       </c>
       <c r="C133077">
@@ -3576,7 +3596,7 @@
       <c r="A133078">
         <v>133076</v>
       </c>
-      <c r="B133078" s="1">
+      <c r="B133078" s="3">
         <v>44362.0833333333</v>
       </c>
       <c r="C133078">
@@ -3596,7 +3616,7 @@
       <c r="A133079">
         <v>133077</v>
       </c>
-      <c r="B133079" s="1">
+      <c r="B133079" s="3">
         <v>44362.125</v>
       </c>
       <c r="C133079">
@@ -3616,7 +3636,7 @@
       <c r="A133080">
         <v>133078</v>
       </c>
-      <c r="B133080" s="1">
+      <c r="B133080" s="3">
         <v>44362.1666666667</v>
       </c>
       <c r="C133080">
@@ -3636,7 +3656,7 @@
       <c r="A133081">
         <v>133079</v>
       </c>
-      <c r="B133081" s="1">
+      <c r="B133081" s="3">
         <v>44362.2083333333</v>
       </c>
       <c r="C133081">
@@ -3656,7 +3676,7 @@
       <c r="A133082">
         <v>133080</v>
       </c>
-      <c r="B133082" s="1">
+      <c r="B133082" s="3">
         <v>44362.25</v>
       </c>
       <c r="C133082">
@@ -3676,7 +3696,7 @@
       <c r="A133083">
         <v>133081</v>
       </c>
-      <c r="B133083" s="1">
+      <c r="B133083" s="3">
         <v>44362.2916666667</v>
       </c>
       <c r="C133083">
@@ -3696,7 +3716,7 @@
       <c r="A133084">
         <v>133082</v>
       </c>
-      <c r="B133084" s="1">
+      <c r="B133084" s="3">
         <v>44362.3333333333</v>
       </c>
       <c r="C133084">
@@ -3716,7 +3736,7 @@
       <c r="A133085">
         <v>133083</v>
       </c>
-      <c r="B133085" s="1">
+      <c r="B133085" s="3">
         <v>44362.375</v>
       </c>
       <c r="C133085">
@@ -3736,7 +3756,7 @@
       <c r="A133086">
         <v>133084</v>
       </c>
-      <c r="B133086" s="1">
+      <c r="B133086" s="3">
         <v>44362.4166666667</v>
       </c>
       <c r="C133086">
@@ -3756,7 +3776,7 @@
       <c r="A133087">
         <v>133085</v>
       </c>
-      <c r="B133087" s="1">
+      <c r="B133087" s="3">
         <v>44362.4583333333</v>
       </c>
       <c r="C133087">
@@ -3776,7 +3796,7 @@
       <c r="A133088">
         <v>133086</v>
       </c>
-      <c r="B133088" s="1">
+      <c r="B133088" s="3">
         <v>44362.5</v>
       </c>
       <c r="C133088">
@@ -3796,7 +3816,7 @@
       <c r="A133089">
         <v>133087</v>
       </c>
-      <c r="B133089" s="1">
+      <c r="B133089" s="3">
         <v>44362.5416666667</v>
       </c>
       <c r="C133089">
@@ -3816,7 +3836,7 @@
       <c r="A133090">
         <v>133088</v>
       </c>
-      <c r="B133090" s="1">
+      <c r="B133090" s="3">
         <v>44362.5833333333</v>
       </c>
       <c r="C133090">
@@ -3836,7 +3856,7 @@
       <c r="A133091">
         <v>133089</v>
       </c>
-      <c r="B133091" s="1">
+      <c r="B133091" s="3">
         <v>44362.625</v>
       </c>
       <c r="C133091">
@@ -3856,7 +3876,7 @@
       <c r="A133092">
         <v>133090</v>
       </c>
-      <c r="B133092" s="1">
+      <c r="B133092" s="3">
         <v>44362.6666666667</v>
       </c>
       <c r="C133092">
@@ -3876,7 +3896,7 @@
       <c r="A133093">
         <v>133091</v>
       </c>
-      <c r="B133093" s="1">
+      <c r="B133093" s="3">
         <v>44362.7083333333</v>
       </c>
       <c r="C133093">
@@ -3896,7 +3916,7 @@
       <c r="A133094">
         <v>133092</v>
       </c>
-      <c r="B133094" s="1">
+      <c r="B133094" s="3">
         <v>44362.75</v>
       </c>
       <c r="C133094">
@@ -3916,7 +3936,7 @@
       <c r="A133095">
         <v>133093</v>
       </c>
-      <c r="B133095" s="1">
+      <c r="B133095" s="3">
         <v>44362.7916666667</v>
       </c>
       <c r="C133095">
@@ -3936,7 +3956,7 @@
       <c r="A133096">
         <v>133094</v>
       </c>
-      <c r="B133096" s="1">
+      <c r="B133096" s="3">
         <v>44362.8333333333</v>
       </c>
       <c r="C133096">
@@ -3956,7 +3976,7 @@
       <c r="A133097">
         <v>133095</v>
       </c>
-      <c r="B133097" s="1">
+      <c r="B133097" s="3">
         <v>44362.875</v>
       </c>
       <c r="C133097">
@@ -3976,7 +3996,7 @@
       <c r="A133098">
         <v>133096</v>
       </c>
-      <c r="B133098" s="1">
+      <c r="B133098" s="3">
         <v>44362.9166666667</v>
       </c>
       <c r="C133098">
@@ -3996,7 +4016,7 @@
       <c r="A133099">
         <v>133097</v>
       </c>
-      <c r="B133099" s="1">
+      <c r="B133099" s="3">
         <v>44362.9583333333</v>
       </c>
       <c r="C133099">
@@ -4016,7 +4036,7 @@
       <c r="A133100">
         <v>133098</v>
       </c>
-      <c r="B133100" s="1">
+      <c r="B133100" s="3">
         <v>44363</v>
       </c>
       <c r="C133100">
@@ -4036,7 +4056,7 @@
       <c r="A133101">
         <v>133099</v>
       </c>
-      <c r="B133101" s="1">
+      <c r="B133101" s="3">
         <v>44363.0416666667</v>
       </c>
       <c r="C133101">
@@ -4056,7 +4076,7 @@
       <c r="A133102">
         <v>133100</v>
       </c>
-      <c r="B133102" s="1">
+      <c r="B133102" s="3">
         <v>44363.0833333333</v>
       </c>
       <c r="C133102">
@@ -4076,7 +4096,7 @@
       <c r="A133103">
         <v>133101</v>
       </c>
-      <c r="B133103" s="1">
+      <c r="B133103" s="3">
         <v>44363.125</v>
       </c>
       <c r="C133103">
@@ -4096,7 +4116,7 @@
       <c r="A133104">
         <v>133102</v>
       </c>
-      <c r="B133104" s="1">
+      <c r="B133104" s="3">
         <v>44363.1666666667</v>
       </c>
       <c r="C133104">
@@ -4116,7 +4136,7 @@
       <c r="A133105">
         <v>133103</v>
       </c>
-      <c r="B133105" s="1">
+      <c r="B133105" s="3">
         <v>44363.2083333333</v>
       </c>
       <c r="C133105">
@@ -4136,7 +4156,7 @@
       <c r="A133106">
         <v>133104</v>
       </c>
-      <c r="B133106" s="1">
+      <c r="B133106" s="3">
         <v>44363.25</v>
       </c>
       <c r="C133106">
@@ -4156,7 +4176,7 @@
       <c r="A133107">
         <v>133105</v>
       </c>
-      <c r="B133107" s="1">
+      <c r="B133107" s="3">
         <v>44363.2916666667</v>
       </c>
       <c r="C133107">
@@ -4176,7 +4196,7 @@
       <c r="A133108">
         <v>133106</v>
       </c>
-      <c r="B133108" s="1">
+      <c r="B133108" s="3">
         <v>44363.3333333333</v>
       </c>
       <c r="C133108">
@@ -4196,7 +4216,7 @@
       <c r="A133109">
         <v>133107</v>
       </c>
-      <c r="B133109" s="1">
+      <c r="B133109" s="3">
         <v>44363.375</v>
       </c>
       <c r="C133109">
@@ -4216,7 +4236,7 @@
       <c r="A133110">
         <v>133108</v>
       </c>
-      <c r="B133110" s="1">
+      <c r="B133110" s="3">
         <v>44363.4166666667</v>
       </c>
       <c r="C133110">
@@ -4236,7 +4256,7 @@
       <c r="A133111">
         <v>133109</v>
       </c>
-      <c r="B133111" s="1">
+      <c r="B133111" s="3">
         <v>44363.4583333333</v>
       </c>
       <c r="C133111">
@@ -4256,7 +4276,7 @@
       <c r="A133112">
         <v>133110</v>
       </c>
-      <c r="B133112" s="1">
+      <c r="B133112" s="3">
         <v>44363.5</v>
       </c>
       <c r="C133112">
@@ -4276,7 +4296,7 @@
       <c r="A133113">
         <v>133111</v>
       </c>
-      <c r="B133113" s="1">
+      <c r="B133113" s="3">
         <v>44363.5416666667</v>
       </c>
       <c r="C133113">
@@ -4296,7 +4316,7 @@
       <c r="A133114">
         <v>133112</v>
       </c>
-      <c r="B133114" s="1">
+      <c r="B133114" s="3">
         <v>44363.5833333333</v>
       </c>
       <c r="C133114">
@@ -4316,7 +4336,7 @@
       <c r="A133115">
         <v>133113</v>
       </c>
-      <c r="B133115" s="1">
+      <c r="B133115" s="3">
         <v>44363.625</v>
       </c>
       <c r="C133115">
@@ -4336,7 +4356,7 @@
       <c r="A133116">
         <v>133114</v>
       </c>
-      <c r="B133116" s="1">
+      <c r="B133116" s="3">
         <v>44363.6666666667</v>
       </c>
       <c r="C133116">
@@ -4356,7 +4376,7 @@
       <c r="A133117">
         <v>133115</v>
       </c>
-      <c r="B133117" s="1">
+      <c r="B133117" s="3">
         <v>44363.7083333333</v>
       </c>
       <c r="C133117">
@@ -4376,7 +4396,7 @@
       <c r="A133118">
         <v>133116</v>
       </c>
-      <c r="B133118" s="1">
+      <c r="B133118" s="3">
         <v>44363.75</v>
       </c>
       <c r="C133118">
@@ -4396,7 +4416,7 @@
       <c r="A133119">
         <v>133117</v>
       </c>
-      <c r="B133119" s="1">
+      <c r="B133119" s="3">
         <v>44363.7916666667</v>
       </c>
       <c r="C133119">
@@ -4416,7 +4436,7 @@
       <c r="A133120">
         <v>133118</v>
       </c>
-      <c r="B133120" s="1">
+      <c r="B133120" s="3">
         <v>44363.8333333333</v>
       </c>
       <c r="C133120">
@@ -4436,7 +4456,7 @@
       <c r="A133121">
         <v>133119</v>
       </c>
-      <c r="B133121" s="1">
+      <c r="B133121" s="3">
         <v>44363.875</v>
       </c>
       <c r="C133121">
@@ -4456,7 +4476,7 @@
       <c r="A133122">
         <v>133120</v>
       </c>
-      <c r="B133122" s="1">
+      <c r="B133122" s="3">
         <v>44363.9166666667</v>
       </c>
       <c r="C133122">
@@ -4476,7 +4496,7 @@
       <c r="A133123">
         <v>133121</v>
       </c>
-      <c r="B133123" s="1">
+      <c r="B133123" s="3">
         <v>44363.9583333333</v>
       </c>
       <c r="C133123">
@@ -4496,7 +4516,7 @@
       <c r="A133124">
         <v>133122</v>
       </c>
-      <c r="B133124" s="1">
+      <c r="B133124" s="3">
         <v>44364</v>
       </c>
       <c r="C133124">
@@ -4516,7 +4536,7 @@
       <c r="A133125">
         <v>133123</v>
       </c>
-      <c r="B133125" s="1">
+      <c r="B133125" s="3">
         <v>44364.0416666667</v>
       </c>
       <c r="C133125">
@@ -4536,7 +4556,7 @@
       <c r="A133126">
         <v>133124</v>
       </c>
-      <c r="B133126" s="1">
+      <c r="B133126" s="3">
         <v>44364.0833333333</v>
       </c>
       <c r="C133126">
@@ -4556,7 +4576,7 @@
       <c r="A133127">
         <v>133125</v>
       </c>
-      <c r="B133127" s="1">
+      <c r="B133127" s="3">
         <v>44364.125</v>
       </c>
       <c r="C133127">
@@ -4576,7 +4596,7 @@
       <c r="A133128">
         <v>133126</v>
       </c>
-      <c r="B133128" s="1">
+      <c r="B133128" s="3">
         <v>44364.1666666667</v>
       </c>
       <c r="C133128">
@@ -4596,7 +4616,7 @@
       <c r="A133129">
         <v>133127</v>
       </c>
-      <c r="B133129" s="1">
+      <c r="B133129" s="3">
         <v>44364.2083333333</v>
       </c>
       <c r="C133129">
@@ -4616,7 +4636,7 @@
       <c r="A133130">
         <v>133128</v>
       </c>
-      <c r="B133130" s="1">
+      <c r="B133130" s="3">
         <v>44364.25</v>
       </c>
       <c r="C133130">
@@ -4636,7 +4656,7 @@
       <c r="A133131">
         <v>133129</v>
       </c>
-      <c r="B133131" s="1">
+      <c r="B133131" s="3">
         <v>44364.2916666667</v>
       </c>
       <c r="C133131">
@@ -4656,7 +4676,7 @@
       <c r="A133132">
         <v>133130</v>
       </c>
-      <c r="B133132" s="1">
+      <c r="B133132" s="3">
         <v>44364.3333333333</v>
       </c>
       <c r="C133132">
@@ -4676,7 +4696,7 @@
       <c r="A133133">
         <v>133131</v>
       </c>
-      <c r="B133133" s="1">
+      <c r="B133133" s="3">
         <v>44364.375</v>
       </c>
       <c r="C133133">
@@ -4696,7 +4716,7 @@
       <c r="A133134">
         <v>133132</v>
       </c>
-      <c r="B133134" s="1">
+      <c r="B133134" s="3">
         <v>44364.4166666667</v>
       </c>
       <c r="C133134">
@@ -4716,7 +4736,7 @@
       <c r="A133135">
         <v>133133</v>
       </c>
-      <c r="B133135" s="1">
+      <c r="B133135" s="3">
         <v>44364.4583333333</v>
       </c>
       <c r="C133135">
@@ -4736,7 +4756,7 @@
       <c r="A133136">
         <v>133134</v>
       </c>
-      <c r="B133136" s="1">
+      <c r="B133136" s="3">
         <v>44364.5</v>
       </c>
       <c r="C133136">
@@ -4756,7 +4776,7 @@
       <c r="A133137">
         <v>133135</v>
       </c>
-      <c r="B133137" s="1">
+      <c r="B133137" s="3">
         <v>44364.5416666667</v>
       </c>
       <c r="C133137">
@@ -4776,7 +4796,7 @@
       <c r="A133138">
         <v>133136</v>
       </c>
-      <c r="B133138" s="1">
+      <c r="B133138" s="3">
         <v>44364.5833333333</v>
       </c>
       <c r="C133138">
@@ -4796,7 +4816,7 @@
       <c r="A133139">
         <v>133137</v>
       </c>
-      <c r="B133139" s="1">
+      <c r="B133139" s="3">
         <v>44364.625</v>
       </c>
       <c r="C133139">
@@ -4816,7 +4836,7 @@
       <c r="A133140">
         <v>133138</v>
       </c>
-      <c r="B133140" s="1">
+      <c r="B133140" s="3">
         <v>44364.6666666667</v>
       </c>
       <c r="C133140">
@@ -4836,7 +4856,7 @@
       <c r="A133141">
         <v>133139</v>
       </c>
-      <c r="B133141" s="1">
+      <c r="B133141" s="3">
         <v>44364.7083333333</v>
       </c>
       <c r="C133141">
@@ -4856,7 +4876,7 @@
       <c r="A133142">
         <v>133140</v>
       </c>
-      <c r="B133142" s="1">
+      <c r="B133142" s="3">
         <v>44364.75</v>
       </c>
       <c r="C133142">
@@ -4876,7 +4896,7 @@
       <c r="A133143">
         <v>133141</v>
       </c>
-      <c r="B133143" s="1">
+      <c r="B133143" s="3">
         <v>44364.7916666667</v>
       </c>
       <c r="C133143">
@@ -4896,7 +4916,7 @@
       <c r="A133144">
         <v>133142</v>
       </c>
-      <c r="B133144" s="1">
+      <c r="B133144" s="3">
         <v>44364.8333333333</v>
       </c>
       <c r="C133144">
@@ -4916,7 +4936,7 @@
       <c r="A133145">
         <v>133143</v>
       </c>
-      <c r="B133145" s="1">
+      <c r="B133145" s="3">
         <v>44364.875</v>
       </c>
       <c r="C133145">
@@ -4936,7 +4956,7 @@
       <c r="A133146">
         <v>133144</v>
       </c>
-      <c r="B133146" s="1">
+      <c r="B133146" s="3">
         <v>44364.9166666667</v>
       </c>
       <c r="C133146">
@@ -4956,7 +4976,7 @@
       <c r="A133147">
         <v>133145</v>
       </c>
-      <c r="B133147" s="1">
+      <c r="B133147" s="3">
         <v>44364.9583333333</v>
       </c>
       <c r="C133147">
@@ -4976,7 +4996,7 @@
       <c r="A133148">
         <v>133146</v>
       </c>
-      <c r="B133148" s="1">
+      <c r="B133148" s="3">
         <v>44365</v>
       </c>
       <c r="C133148">
@@ -4996,7 +5016,7 @@
       <c r="A133149">
         <v>133147</v>
       </c>
-      <c r="B133149" s="1">
+      <c r="B133149" s="3">
         <v>44365.0416666667</v>
       </c>
       <c r="C133149">
@@ -5016,7 +5036,7 @@
       <c r="A133150">
         <v>133148</v>
       </c>
-      <c r="B133150" s="1">
+      <c r="B133150" s="3">
         <v>44365.0833333333</v>
       </c>
       <c r="C133150">
@@ -5036,7 +5056,7 @@
       <c r="A133151">
         <v>133149</v>
       </c>
-      <c r="B133151" s="1">
+      <c r="B133151" s="3">
         <v>44365.125</v>
       </c>
       <c r="C133151">
@@ -5056,7 +5076,7 @@
       <c r="A133152">
         <v>133150</v>
       </c>
-      <c r="B133152" s="1">
+      <c r="B133152" s="3">
         <v>44365.1666666667</v>
       </c>
       <c r="C133152">
@@ -5076,7 +5096,7 @@
       <c r="A133153">
         <v>133151</v>
       </c>
-      <c r="B133153" s="1">
+      <c r="B133153" s="3">
         <v>44365.2083333333</v>
       </c>
       <c r="C133153">
@@ -5096,7 +5116,7 @@
       <c r="A133154">
         <v>133152</v>
       </c>
-      <c r="B133154" s="1">
+      <c r="B133154" s="3">
         <v>44365.25</v>
       </c>
       <c r="C133154">
@@ -5116,7 +5136,7 @@
       <c r="A133155">
         <v>133153</v>
       </c>
-      <c r="B133155" s="1">
+      <c r="B133155" s="3">
         <v>44365.2916666667</v>
       </c>
       <c r="C133155">
@@ -5136,7 +5156,7 @@
       <c r="A133156">
         <v>133154</v>
       </c>
-      <c r="B133156" s="1">
+      <c r="B133156" s="3">
         <v>44365.3333333333</v>
       </c>
       <c r="C133156">
@@ -5156,7 +5176,7 @@
       <c r="A133157">
         <v>133155</v>
       </c>
-      <c r="B133157" s="1">
+      <c r="B133157" s="3">
         <v>44365.375</v>
       </c>
       <c r="C133157">
@@ -5176,7 +5196,7 @@
       <c r="A133158">
         <v>133156</v>
       </c>
-      <c r="B133158" s="1">
+      <c r="B133158" s="3">
         <v>44365.4166666667</v>
       </c>
       <c r="C133158">
@@ -5196,7 +5216,7 @@
       <c r="A133159">
         <v>133157</v>
       </c>
-      <c r="B133159" s="1">
+      <c r="B133159" s="3">
         <v>44365.4583333333</v>
       </c>
       <c r="C133159">
@@ -5216,7 +5236,7 @@
       <c r="A133160">
         <v>133158</v>
       </c>
-      <c r="B133160" s="1">
+      <c r="B133160" s="3">
         <v>44365.5</v>
       </c>
       <c r="C133160">
@@ -5236,7 +5256,7 @@
       <c r="A133161">
         <v>133159</v>
       </c>
-      <c r="B133161" s="1">
+      <c r="B133161" s="3">
         <v>44365.5416666667</v>
       </c>
       <c r="C133161">
@@ -5256,7 +5276,7 @@
       <c r="A133162">
         <v>133160</v>
       </c>
-      <c r="B133162" s="1">
+      <c r="B133162" s="3">
         <v>44365.5833333333</v>
       </c>
       <c r="C133162">
@@ -5276,7 +5296,7 @@
       <c r="A133163">
         <v>133161</v>
       </c>
-      <c r="B133163" s="1">
+      <c r="B133163" s="3">
         <v>44365.625</v>
       </c>
       <c r="C133163">
@@ -5296,7 +5316,7 @@
       <c r="A133164">
         <v>133162</v>
       </c>
-      <c r="B133164" s="1">
+      <c r="B133164" s="3">
         <v>44365.6666666667</v>
       </c>
       <c r="C133164">
@@ -5316,7 +5336,7 @@
       <c r="A133165">
         <v>133163</v>
       </c>
-      <c r="B133165" s="1">
+      <c r="B133165" s="3">
         <v>44365.7083333333</v>
       </c>
       <c r="C133165">
@@ -5336,7 +5356,7 @@
       <c r="A133166">
         <v>133164</v>
       </c>
-      <c r="B133166" s="1">
+      <c r="B133166" s="3">
         <v>44365.75</v>
       </c>
       <c r="C133166">
@@ -5356,7 +5376,7 @@
       <c r="A133167">
         <v>133165</v>
       </c>
-      <c r="B133167" s="1">
+      <c r="B133167" s="3">
         <v>44365.7916666667</v>
       </c>
       <c r="C133167">
@@ -5376,7 +5396,7 @@
       <c r="A133168">
         <v>133166</v>
       </c>
-      <c r="B133168" s="1">
+      <c r="B133168" s="3">
         <v>44365.8333333333</v>
       </c>
       <c r="C133168">
@@ -5396,7 +5416,7 @@
       <c r="A133169">
         <v>133167</v>
       </c>
-      <c r="B133169" s="1">
+      <c r="B133169" s="3">
         <v>44365.875</v>
       </c>
       <c r="C133169">
@@ -5416,7 +5436,7 @@
       <c r="A133170">
         <v>133168</v>
       </c>
-      <c r="B133170" s="1">
+      <c r="B133170" s="3">
         <v>44365.9166666667</v>
       </c>
       <c r="C133170">
@@ -5436,7 +5456,7 @@
       <c r="A133171">
         <v>133169</v>
       </c>
-      <c r="B133171" s="1">
+      <c r="B133171" s="3">
         <v>44365.9583333333</v>
       </c>
       <c r="C133171">
@@ -5456,7 +5476,7 @@
       <c r="A133172">
         <v>133170</v>
       </c>
-      <c r="B133172" s="1">
+      <c r="B133172" s="3">
         <v>44368</v>
       </c>
       <c r="C133172">
@@ -5476,7 +5496,7 @@
       <c r="A133173">
         <v>133171</v>
       </c>
-      <c r="B133173" s="1">
+      <c r="B133173" s="3">
         <v>44368.0416666667</v>
       </c>
       <c r="C133173">
@@ -5496,7 +5516,7 @@
       <c r="A133174">
         <v>133172</v>
       </c>
-      <c r="B133174" s="1">
+      <c r="B133174" s="3">
         <v>44368.0833333333</v>
       </c>
       <c r="C133174">
@@ -5516,7 +5536,7 @@
       <c r="A133175">
         <v>133173</v>
       </c>
-      <c r="B133175" s="1">
+      <c r="B133175" s="3">
         <v>44368.125</v>
       </c>
       <c r="C133175">
@@ -5536,7 +5556,7 @@
       <c r="A133176">
         <v>133174</v>
       </c>
-      <c r="B133176" s="1">
+      <c r="B133176" s="3">
         <v>44368.1666666667</v>
       </c>
       <c r="C133176">
@@ -5556,7 +5576,7 @@
       <c r="A133177">
         <v>133175</v>
       </c>
-      <c r="B133177" s="1">
+      <c r="B133177" s="3">
         <v>44368.2083333333</v>
       </c>
       <c r="C133177">
@@ -5576,7 +5596,7 @@
       <c r="A133178">
         <v>133176</v>
       </c>
-      <c r="B133178" s="1">
+      <c r="B133178" s="3">
         <v>44368.25</v>
       </c>
       <c r="C133178">
@@ -5596,7 +5616,7 @@
       <c r="A133179">
         <v>133177</v>
       </c>
-      <c r="B133179" s="1">
+      <c r="B133179" s="3">
         <v>44368.2916666667</v>
       </c>
       <c r="C133179">
@@ -5616,7 +5636,7 @@
       <c r="A133180">
         <v>133178</v>
       </c>
-      <c r="B133180" s="1">
+      <c r="B133180" s="3">
         <v>44368.3333333333</v>
       </c>
       <c r="C133180">
@@ -5636,7 +5656,7 @@
       <c r="A133181">
         <v>133179</v>
       </c>
-      <c r="B133181" s="1">
+      <c r="B133181" s="3">
         <v>44368.375</v>
       </c>
       <c r="C133181">
@@ -5656,7 +5676,7 @@
       <c r="A133182">
         <v>133180</v>
       </c>
-      <c r="B133182" s="1">
+      <c r="B133182" s="3">
         <v>44368.4166666667</v>
       </c>
       <c r="C133182">
@@ -5676,7 +5696,7 @@
       <c r="A133183">
         <v>133181</v>
       </c>
-      <c r="B133183" s="1">
+      <c r="B133183" s="3">
         <v>44368.4583333333</v>
       </c>
       <c r="C133183">
@@ -5696,7 +5716,7 @@
       <c r="A133184">
         <v>133182</v>
       </c>
-      <c r="B133184" s="1">
+      <c r="B133184" s="3">
         <v>44368.5</v>
       </c>
       <c r="C133184">
@@ -5716,7 +5736,7 @@
       <c r="A133185">
         <v>133183</v>
       </c>
-      <c r="B133185" s="1">
+      <c r="B133185" s="3">
         <v>44368.5416666667</v>
       </c>
       <c r="C133185">
@@ -5736,7 +5756,7 @@
       <c r="A133186">
         <v>133184</v>
       </c>
-      <c r="B133186" s="1">
+      <c r="B133186" s="3">
         <v>44368.5833333333</v>
       </c>
       <c r="C133186">
@@ -5756,7 +5776,7 @@
       <c r="A133187">
         <v>133185</v>
       </c>
-      <c r="B133187" s="1">
+      <c r="B133187" s="3">
         <v>44368.625</v>
       </c>
       <c r="C133187">
@@ -5776,7 +5796,7 @@
       <c r="A133188">
         <v>133186</v>
       </c>
-      <c r="B133188" s="1">
+      <c r="B133188" s="3">
         <v>44368.6666666667</v>
       </c>
       <c r="C133188">
@@ -5796,7 +5816,7 @@
       <c r="A133189">
         <v>133187</v>
       </c>
-      <c r="B133189" s="1">
+      <c r="B133189" s="3">
         <v>44368.7083333333</v>
       </c>
       <c r="C133189">
@@ -5816,7 +5836,7 @@
       <c r="A133190">
         <v>133188</v>
       </c>
-      <c r="B133190" s="1">
+      <c r="B133190" s="3">
         <v>44368.75</v>
       </c>
       <c r="C133190">
@@ -5836,7 +5856,7 @@
       <c r="A133191">
         <v>133189</v>
       </c>
-      <c r="B133191" s="1">
+      <c r="B133191" s="3">
         <v>44368.7916666667</v>
       </c>
       <c r="C133191">
@@ -5856,7 +5876,7 @@
       <c r="A133192">
         <v>133190</v>
       </c>
-      <c r="B133192" s="1">
+      <c r="B133192" s="3">
         <v>44368.8333333333</v>
       </c>
       <c r="C133192">
@@ -5876,7 +5896,7 @@
       <c r="A133193">
         <v>133191</v>
       </c>
-      <c r="B133193" s="1">
+      <c r="B133193" s="3">
         <v>44368.875</v>
       </c>
       <c r="C133193">
@@ -5896,7 +5916,7 @@
       <c r="A133194">
         <v>133192</v>
       </c>
-      <c r="B133194" s="1">
+      <c r="B133194" s="3">
         <v>44368.9166666667</v>
       </c>
       <c r="C133194">
@@ -5916,7 +5936,7 @@
       <c r="A133195">
         <v>133193</v>
       </c>
-      <c r="B133195" s="1">
+      <c r="B133195" s="3">
         <v>44368.9583333333</v>
       </c>
       <c r="C133195">
@@ -5936,7 +5956,7 @@
       <c r="A133196">
         <v>133194</v>
       </c>
-      <c r="B133196" s="1">
+      <c r="B133196" s="3">
         <v>44369</v>
       </c>
       <c r="C133196">
@@ -5956,7 +5976,7 @@
       <c r="A133197">
         <v>133195</v>
       </c>
-      <c r="B133197" s="1">
+      <c r="B133197" s="3">
         <v>44369.0416666667</v>
       </c>
       <c r="C133197">
@@ -5976,7 +5996,7 @@
       <c r="A133198">
         <v>133196</v>
       </c>
-      <c r="B133198" s="1">
+      <c r="B133198" s="3">
         <v>44369.0833333333</v>
       </c>
       <c r="C133198">
@@ -5996,7 +6016,7 @@
       <c r="A133199">
         <v>133197</v>
       </c>
-      <c r="B133199" s="1">
+      <c r="B133199" s="3">
         <v>44369.125</v>
       </c>
       <c r="C133199">
@@ -6016,7 +6036,7 @@
       <c r="A133200">
         <v>133198</v>
       </c>
-      <c r="B133200" s="1">
+      <c r="B133200" s="3">
         <v>44369.1666666667</v>
       </c>
       <c r="C133200">
@@ -6036,7 +6056,7 @@
       <c r="A133201">
         <v>133199</v>
       </c>
-      <c r="B133201" s="1">
+      <c r="B133201" s="3">
         <v>44369.2083333333</v>
       </c>
       <c r="C133201">
@@ -6056,7 +6076,7 @@
       <c r="A133202">
         <v>133200</v>
       </c>
-      <c r="B133202" s="1">
+      <c r="B133202" s="3">
         <v>44369.25</v>
       </c>
       <c r="C133202">
@@ -6076,7 +6096,7 @@
       <c r="A133203">
         <v>133201</v>
       </c>
-      <c r="B133203" s="1">
+      <c r="B133203" s="3">
         <v>44369.2916666667</v>
       </c>
       <c r="C133203">
@@ -6096,7 +6116,7 @@
       <c r="A133204">
         <v>133202</v>
       </c>
-      <c r="B133204" s="1">
+      <c r="B133204" s="3">
         <v>44369.3333333333</v>
       </c>
       <c r="C133204">
@@ -6116,7 +6136,7 @@
       <c r="A133205">
         <v>133203</v>
       </c>
-      <c r="B133205" s="1">
+      <c r="B133205" s="3">
         <v>44369.375</v>
       </c>
       <c r="C133205">
@@ -6136,7 +6156,7 @@
       <c r="A133206">
         <v>133204</v>
       </c>
-      <c r="B133206" s="1">
+      <c r="B133206" s="3">
         <v>44369.4166666667</v>
       </c>
       <c r="C133206">
@@ -6156,7 +6176,7 @@
       <c r="A133207">
         <v>133205</v>
       </c>
-      <c r="B133207" s="1">
+      <c r="B133207" s="3">
         <v>44369.4583333333</v>
       </c>
       <c r="C133207">
@@ -6176,7 +6196,7 @@
       <c r="A133208">
         <v>133206</v>
       </c>
-      <c r="B133208" s="1">
+      <c r="B133208" s="3">
         <v>44369.5</v>
       </c>
       <c r="C133208">
@@ -6196,7 +6216,7 @@
       <c r="A133209">
         <v>133207</v>
       </c>
-      <c r="B133209" s="1">
+      <c r="B133209" s="3">
         <v>44369.5416666667</v>
       </c>
       <c r="C133209">
@@ -6216,7 +6236,7 @@
       <c r="A133210">
         <v>133208</v>
       </c>
-      <c r="B133210" s="1">
+      <c r="B133210" s="3">
         <v>44369.5833333333</v>
       </c>
       <c r="C133210">
@@ -6236,7 +6256,7 @@
       <c r="A133211">
         <v>133209</v>
       </c>
-      <c r="B133211" s="1">
+      <c r="B133211" s="3">
         <v>44369.625</v>
       </c>
       <c r="C133211">
@@ -6256,7 +6276,7 @@
       <c r="A133212">
         <v>133210</v>
       </c>
-      <c r="B133212" s="1">
+      <c r="B133212" s="3">
         <v>44369.6666666667</v>
       </c>
       <c r="C133212">
@@ -6276,7 +6296,7 @@
       <c r="A133213">
         <v>133211</v>
       </c>
-      <c r="B133213" s="1">
+      <c r="B133213" s="3">
         <v>44369.7083333333</v>
       </c>
       <c r="C133213">
@@ -6296,7 +6316,7 @@
       <c r="A133214">
         <v>133212</v>
       </c>
-      <c r="B133214" s="1">
+      <c r="B133214" s="3">
         <v>44369.75</v>
       </c>
       <c r="C133214">
@@ -6316,7 +6336,7 @@
       <c r="A133215">
         <v>133213</v>
       </c>
-      <c r="B133215" s="1">
+      <c r="B133215" s="3">
         <v>44369.7916666667</v>
       </c>
       <c r="C133215">
@@ -6336,7 +6356,7 @@
       <c r="A133216">
         <v>133214</v>
       </c>
-      <c r="B133216" s="1">
+      <c r="B133216" s="3">
         <v>44369.8333333333</v>
       </c>
       <c r="C133216">
@@ -6356,7 +6376,7 @@
       <c r="A133217">
         <v>133215</v>
       </c>
-      <c r="B133217" s="1">
+      <c r="B133217" s="3">
         <v>44369.875</v>
       </c>
       <c r="C133217">
@@ -6376,7 +6396,7 @@
       <c r="A133218">
         <v>133216</v>
       </c>
-      <c r="B133218" s="1">
+      <c r="B133218" s="3">
         <v>44369.9166666667</v>
       </c>
       <c r="C133218">
@@ -6396,7 +6416,7 @@
       <c r="A133219">
         <v>133217</v>
       </c>
-      <c r="B133219" s="1">
+      <c r="B133219" s="3">
         <v>44369.9583333333</v>
       </c>
       <c r="C133219">
@@ -6416,7 +6436,7 @@
       <c r="A133220">
         <v>133218</v>
       </c>
-      <c r="B133220" s="1">
+      <c r="B133220" s="3">
         <v>44370</v>
       </c>
       <c r="C133220">
@@ -6436,7 +6456,7 @@
       <c r="A133221">
         <v>133219</v>
       </c>
-      <c r="B133221" s="1">
+      <c r="B133221" s="3">
         <v>44370.0416666667</v>
       </c>
       <c r="C133221">
@@ -6456,7 +6476,7 @@
       <c r="A133222">
         <v>133220</v>
       </c>
-      <c r="B133222" s="1">
+      <c r="B133222" s="3">
         <v>44370.0833333333</v>
       </c>
       <c r="C133222">
@@ -6476,7 +6496,7 @@
       <c r="A133223">
         <v>133221</v>
       </c>
-      <c r="B133223" s="1">
+      <c r="B133223" s="3">
         <v>44370.125</v>
       </c>
       <c r="C133223">
@@ -6496,7 +6516,7 @@
       <c r="A133224">
         <v>133222</v>
       </c>
-      <c r="B133224" s="1">
+      <c r="B133224" s="3">
         <v>44370.1666666667</v>
       </c>
       <c r="C133224">
@@ -6516,7 +6536,7 @@
       <c r="A133225">
         <v>133223</v>
       </c>
-      <c r="B133225" s="1">
+      <c r="B133225" s="3">
         <v>44370.2083333333</v>
       </c>
       <c r="C133225">
@@ -6536,7 +6556,7 @@
       <c r="A133226">
         <v>133224</v>
       </c>
-      <c r="B133226" s="1">
+      <c r="B133226" s="3">
         <v>44370.25</v>
       </c>
       <c r="C133226">
@@ -6556,7 +6576,7 @@
       <c r="A133227">
         <v>133225</v>
       </c>
-      <c r="B133227" s="1">
+      <c r="B133227" s="3">
         <v>44370.2916666667</v>
       </c>
       <c r="C133227">
@@ -6576,7 +6596,7 @@
       <c r="A133228">
         <v>133226</v>
       </c>
-      <c r="B133228" s="1">
+      <c r="B133228" s="3">
         <v>44370.3333333333</v>
       </c>
       <c r="C133228">
@@ -6596,7 +6616,7 @@
       <c r="A133229">
         <v>133227</v>
       </c>
-      <c r="B133229" s="1">
+      <c r="B133229" s="3">
         <v>44370.375</v>
       </c>
       <c r="C133229">
@@ -6616,7 +6636,7 @@
       <c r="A133230">
         <v>133228</v>
       </c>
-      <c r="B133230" s="1">
+      <c r="B133230" s="3">
         <v>44370.4166666667</v>
       </c>
       <c r="C133230">
@@ -6636,7 +6656,7 @@
       <c r="A133231">
         <v>133229</v>
       </c>
-      <c r="B133231" s="1">
+      <c r="B133231" s="3">
         <v>44370.4583333333</v>
       </c>
       <c r="C133231">
@@ -6656,7 +6676,7 @@
       <c r="A133232">
         <v>133230</v>
       </c>
-      <c r="B133232" s="1">
+      <c r="B133232" s="3">
         <v>44370.5</v>
       </c>
       <c r="C133232">
@@ -6676,7 +6696,7 @@
       <c r="A133233">
         <v>133231</v>
       </c>
-      <c r="B133233" s="1">
+      <c r="B133233" s="3">
         <v>44370.5416666667</v>
       </c>
       <c r="C133233">
@@ -6696,7 +6716,7 @@
       <c r="A133234">
         <v>133232</v>
       </c>
-      <c r="B133234" s="1">
+      <c r="B133234" s="3">
         <v>44370.5833333333</v>
       </c>
       <c r="C133234">
@@ -6716,7 +6736,7 @@
       <c r="A133235">
         <v>133233</v>
       </c>
-      <c r="B133235" s="1">
+      <c r="B133235" s="3">
         <v>44370.625</v>
       </c>
       <c r="C133235">
@@ -6736,7 +6756,7 @@
       <c r="A133236">
         <v>133234</v>
       </c>
-      <c r="B133236" s="1">
+      <c r="B133236" s="3">
         <v>44370.6666666667</v>
       </c>
       <c r="C133236">
@@ -6756,7 +6776,7 @@
       <c r="A133237">
         <v>133235</v>
       </c>
-      <c r="B133237" s="1">
+      <c r="B133237" s="3">
         <v>44370.7083333333</v>
       </c>
       <c r="C133237">
@@ -6776,7 +6796,7 @@
       <c r="A133238">
         <v>133236</v>
       </c>
-      <c r="B133238" s="1">
+      <c r="B133238" s="3">
         <v>44370.75</v>
       </c>
       <c r="C133238">
@@ -6796,7 +6816,7 @@
       <c r="A133239">
         <v>133237</v>
       </c>
-      <c r="B133239" s="1">
+      <c r="B133239" s="3">
         <v>44370.7916666667</v>
       </c>
       <c r="C133239">
@@ -6816,7 +6836,7 @@
       <c r="A133240">
         <v>133238</v>
       </c>
-      <c r="B133240" s="1">
+      <c r="B133240" s="3">
         <v>44370.8333333333</v>
       </c>
       <c r="C133240">
@@ -6836,7 +6856,7 @@
       <c r="A133241">
         <v>133239</v>
       </c>
-      <c r="B133241" s="1">
+      <c r="B133241" s="3">
         <v>44370.875</v>
       </c>
       <c r="C133241">
@@ -6856,7 +6876,7 @@
       <c r="A133242">
         <v>133240</v>
       </c>
-      <c r="B133242" s="1">
+      <c r="B133242" s="3">
         <v>44370.9166666667</v>
       </c>
       <c r="C133242">
@@ -6876,7 +6896,7 @@
       <c r="A133243">
         <v>133241</v>
       </c>
-      <c r="B133243" s="1">
+      <c r="B133243" s="3">
         <v>44370.9583333333</v>
       </c>
       <c r="C133243">
@@ -6896,7 +6916,7 @@
       <c r="A133244">
         <v>133242</v>
       </c>
-      <c r="B133244" s="1">
+      <c r="B133244" s="3">
         <v>44371</v>
       </c>
       <c r="C133244">
@@ -6916,7 +6936,7 @@
       <c r="A133245">
         <v>133243</v>
       </c>
-      <c r="B133245" s="1">
+      <c r="B133245" s="3">
         <v>44371.0416666667</v>
       </c>
       <c r="C133245">
@@ -6936,7 +6956,7 @@
       <c r="A133246">
         <v>133244</v>
       </c>
-      <c r="B133246" s="1">
+      <c r="B133246" s="3">
         <v>44371.0833333333</v>
       </c>
       <c r="C133246">
@@ -6956,7 +6976,7 @@
       <c r="A133247">
         <v>133245</v>
       </c>
-      <c r="B133247" s="1">
+      <c r="B133247" s="3">
         <v>44371.125</v>
       </c>
       <c r="C133247">
@@ -6976,7 +6996,7 @@
       <c r="A133248">
         <v>133246</v>
       </c>
-      <c r="B133248" s="1">
+      <c r="B133248" s="3">
         <v>44371.1666666667</v>
       </c>
       <c r="C133248">
@@ -6996,7 +7016,7 @@
       <c r="A133249">
         <v>133247</v>
       </c>
-      <c r="B133249" s="1">
+      <c r="B133249" s="3">
         <v>44371.2083333333</v>
       </c>
       <c r="C133249">
@@ -7016,7 +7036,7 @@
       <c r="A133250">
         <v>133248</v>
       </c>
-      <c r="B133250" s="1">
+      <c r="B133250" s="3">
         <v>44371.25</v>
       </c>
       <c r="C133250">
@@ -7036,7 +7056,7 @@
       <c r="A133251">
         <v>133249</v>
       </c>
-      <c r="B133251" s="1">
+      <c r="B133251" s="3">
         <v>44371.2916666667</v>
       </c>
       <c r="C133251">
@@ -7056,7 +7076,7 @@
       <c r="A133252">
         <v>133250</v>
       </c>
-      <c r="B133252" s="1">
+      <c r="B133252" s="3">
         <v>44371.3333333333</v>
       </c>
       <c r="C133252">
@@ -7076,7 +7096,7 @@
       <c r="A133253">
         <v>133251</v>
       </c>
-      <c r="B133253" s="1">
+      <c r="B133253" s="3">
         <v>44371.375</v>
       </c>
       <c r="C133253">
@@ -7096,7 +7116,7 @@
       <c r="A133254">
         <v>133252</v>
       </c>
-      <c r="B133254" s="1">
+      <c r="B133254" s="3">
         <v>44371.4166666667</v>
       </c>
       <c r="C133254">
@@ -7116,7 +7136,7 @@
       <c r="A133255">
         <v>133253</v>
       </c>
-      <c r="B133255" s="1">
+      <c r="B133255" s="3">
         <v>44371.4583333333</v>
       </c>
       <c r="C133255">
@@ -7136,7 +7156,7 @@
       <c r="A133256">
         <v>133254</v>
       </c>
-      <c r="B133256" s="1">
+      <c r="B133256" s="3">
         <v>44371.5</v>
       </c>
       <c r="C133256">
@@ -7156,7 +7176,7 @@
       <c r="A133257">
         <v>133255</v>
       </c>
-      <c r="B133257" s="1">
+      <c r="B133257" s="3">
         <v>44371.5416666667</v>
       </c>
       <c r="C133257">
@@ -7176,7 +7196,7 @@
       <c r="A133258">
         <v>133256</v>
       </c>
-      <c r="B133258" s="1">
+      <c r="B133258" s="3">
         <v>44371.5833333333</v>
       </c>
       <c r="C133258">
@@ -7196,7 +7216,7 @@
       <c r="A133259">
         <v>133257</v>
       </c>
-      <c r="B133259" s="1">
+      <c r="B133259" s="3">
         <v>44371.625</v>
       </c>
       <c r="C133259">
@@ -7216,7 +7236,7 @@
       <c r="A133260">
         <v>133258</v>
       </c>
-      <c r="B133260" s="1">
+      <c r="B133260" s="3">
         <v>44371.6666666667</v>
       </c>
       <c r="C133260">
@@ -7236,7 +7256,7 @@
       <c r="A133261">
         <v>133259</v>
       </c>
-      <c r="B133261" s="1">
+      <c r="B133261" s="3">
         <v>44371.7083333333</v>
       </c>
       <c r="C133261">
@@ -7256,7 +7276,7 @@
       <c r="A133262">
         <v>133260</v>
       </c>
-      <c r="B133262" s="1">
+      <c r="B133262" s="3">
         <v>44371.75</v>
       </c>
       <c r="C133262">
@@ -7276,7 +7296,7 @@
       <c r="A133263">
         <v>133261</v>
       </c>
-      <c r="B133263" s="1">
+      <c r="B133263" s="3">
         <v>44371.7916666667</v>
       </c>
       <c r="C133263">
@@ -7296,7 +7316,7 @@
       <c r="A133264">
         <v>133262</v>
       </c>
-      <c r="B133264" s="1">
+      <c r="B133264" s="3">
         <v>44371.8333333333</v>
       </c>
       <c r="C133264">
@@ -7316,7 +7336,7 @@
       <c r="A133265">
         <v>133263</v>
       </c>
-      <c r="B133265" s="1">
+      <c r="B133265" s="3">
         <v>44371.875</v>
       </c>
       <c r="C133265">
@@ -7336,7 +7356,7 @@
       <c r="A133266">
         <v>133264</v>
       </c>
-      <c r="B133266" s="1">
+      <c r="B133266" s="3">
         <v>44371.9166666667</v>
       </c>
       <c r="C133266">
@@ -7356,7 +7376,7 @@
       <c r="A133267">
         <v>133265</v>
       </c>
-      <c r="B133267" s="1">
+      <c r="B133267" s="3">
         <v>44371.9583333333</v>
       </c>
       <c r="C133267">
@@ -7376,7 +7396,7 @@
       <c r="A133268">
         <v>133266</v>
       </c>
-      <c r="B133268" s="1">
+      <c r="B133268" s="3">
         <v>44372</v>
       </c>
       <c r="C133268">
@@ -7396,7 +7416,7 @@
       <c r="A133269">
         <v>133267</v>
       </c>
-      <c r="B133269" s="1">
+      <c r="B133269" s="3">
         <v>44372.0416666667</v>
       </c>
       <c r="C133269">
@@ -7416,7 +7436,7 @@
       <c r="A133270">
         <v>133268</v>
       </c>
-      <c r="B133270" s="1">
+      <c r="B133270" s="3">
         <v>44372.0833333333</v>
       </c>
       <c r="C133270">
@@ -7436,7 +7456,7 @@
       <c r="A133271">
         <v>133269</v>
       </c>
-      <c r="B133271" s="1">
+      <c r="B133271" s="3">
         <v>44372.125</v>
       </c>
       <c r="C133271">
@@ -7456,7 +7476,7 @@
       <c r="A133272">
         <v>133270</v>
       </c>
-      <c r="B133272" s="1">
+      <c r="B133272" s="3">
         <v>44372.1666666667</v>
       </c>
       <c r="C133272">
@@ -7476,7 +7496,7 @@
       <c r="A133273">
         <v>133271</v>
       </c>
-      <c r="B133273" s="1">
+      <c r="B133273" s="3">
         <v>44372.2083333333</v>
       </c>
       <c r="C133273">
@@ -7496,7 +7516,7 @@
       <c r="A133274">
         <v>133272</v>
       </c>
-      <c r="B133274" s="1">
+      <c r="B133274" s="3">
         <v>44372.25</v>
       </c>
       <c r="C133274">
@@ -7516,7 +7536,7 @@
       <c r="A133275">
         <v>133273</v>
       </c>
-      <c r="B133275" s="1">
+      <c r="B133275" s="3">
         <v>44372.2916666667</v>
       </c>
       <c r="C133275">
@@ -7536,7 +7556,7 @@
       <c r="A133276">
         <v>133274</v>
       </c>
-      <c r="B133276" s="1">
+      <c r="B133276" s="3">
         <v>44372.3333333333</v>
       </c>
       <c r="C133276">
@@ -7556,7 +7576,7 @@
       <c r="A133277">
         <v>133275</v>
       </c>
-      <c r="B133277" s="1">
+      <c r="B133277" s="3">
         <v>44372.375</v>
       </c>
       <c r="C133277">
@@ -7576,7 +7596,7 @@
       <c r="A133278">
         <v>133276</v>
       </c>
-      <c r="B133278" s="1">
+      <c r="B133278" s="3">
         <v>44372.4166666667</v>
       </c>
       <c r="C133278">
@@ -7596,7 +7616,7 @@
       <c r="A133279">
         <v>133277</v>
       </c>
-      <c r="B133279" s="1">
+      <c r="B133279" s="3">
         <v>44372.4583333333</v>
       </c>
       <c r="C133279">
@@ -7616,7 +7636,7 @@
       <c r="A133280">
         <v>133278</v>
       </c>
-      <c r="B133280" s="1">
+      <c r="B133280" s="3">
         <v>44372.5</v>
       </c>
       <c r="C133280">
@@ -7636,7 +7656,7 @@
       <c r="A133281">
         <v>133279</v>
       </c>
-      <c r="B133281" s="1">
+      <c r="B133281" s="3">
         <v>44372.5416666667</v>
       </c>
       <c r="C133281">
@@ -7656,7 +7676,7 @@
       <c r="A133282">
         <v>133280</v>
       </c>
-      <c r="B133282" s="1">
+      <c r="B133282" s="3">
         <v>44372.5833333333</v>
       </c>
       <c r="C133282">
@@ -7676,7 +7696,7 @@
       <c r="A133283">
         <v>133281</v>
       </c>
-      <c r="B133283" s="1">
+      <c r="B133283" s="3">
         <v>44372.625</v>
       </c>
       <c r="C133283">
@@ -7696,7 +7716,7 @@
       <c r="A133284">
         <v>133282</v>
       </c>
-      <c r="B133284" s="1">
+      <c r="B133284" s="3">
         <v>44372.6666666667</v>
       </c>
       <c r="C133284">
@@ -7716,7 +7736,7 @@
       <c r="A133285">
         <v>133283</v>
       </c>
-      <c r="B133285" s="1">
+      <c r="B133285" s="3">
         <v>44372.7083333333</v>
       </c>
       <c r="C133285">
@@ -7736,7 +7756,7 @@
       <c r="A133286">
         <v>133284</v>
       </c>
-      <c r="B133286" s="1">
+      <c r="B133286" s="3">
         <v>44372.75</v>
       </c>
       <c r="C133286">
@@ -7756,7 +7776,7 @@
       <c r="A133287">
         <v>133285</v>
       </c>
-      <c r="B133287" s="1">
+      <c r="B133287" s="3">
         <v>44372.7916666667</v>
       </c>
       <c r="C133287">
@@ -7776,7 +7796,7 @@
       <c r="A133288">
         <v>133286</v>
       </c>
-      <c r="B133288" s="1">
+      <c r="B133288" s="3">
         <v>44372.8333333333</v>
       </c>
       <c r="C133288">
@@ -7796,7 +7816,7 @@
       <c r="A133289">
         <v>133287</v>
       </c>
-      <c r="B133289" s="1">
+      <c r="B133289" s="3">
         <v>44372.875</v>
       </c>
       <c r="C133289">
@@ -7816,7 +7836,7 @@
       <c r="A133290">
         <v>133288</v>
       </c>
-      <c r="B133290" s="1">
+      <c r="B133290" s="3">
         <v>44372.9166666667</v>
       </c>
       <c r="C133290">
@@ -7836,7 +7856,7 @@
       <c r="A133291">
         <v>133289</v>
       </c>
-      <c r="B133291" s="1">
+      <c r="B133291" s="3">
         <v>44372.9583333333</v>
       </c>
       <c r="C133291">
